--- a/ods/25-KW46 Time-Sheet.xlsx
+++ b/ods/25-KW46 Time-Sheet.xlsx
@@ -3124,11 +3124,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>10.11.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3172,11 +3168,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10.11.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3220,11 +3212,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>10.11.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3268,11 +3256,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>10.11.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3316,11 +3300,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>11.11.2025</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3364,11 +3344,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>11.11.2025</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3412,11 +3388,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>12.11.2025</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3460,11 +3432,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>12.11.2025</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3508,11 +3476,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>12.11.2025</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3556,11 +3520,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>13.11.2025</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3604,11 +3564,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>13.11.2025</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3652,11 +3608,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>13.11.2025</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>08:00</t>
